--- a/Inventory management BRD.xlsx
+++ b/Inventory management BRD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRASHANT\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TYSS\TYSS-project\Inventory_Management_SpringBoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Task No</t>
   </si>
@@ -41,21 +41,12 @@
     <t xml:space="preserve">We will be writting methods to saveUser()by using @postmapping annotation, getUserById() by using @GetMapping annotation,updateUserIdById() by using @Putmapping annotation,deleteUserById() by using @Deletemapping annotation and this class will be annotated with @Restcontroller and here we will be creating reference variable of particular service class. </t>
   </si>
   <si>
-    <t>Products Dto</t>
-  </si>
-  <si>
     <t>It is an entity class,annotated with @Entity ,Fields are product_id,product_name,total_product_quantity</t>
   </si>
   <si>
-    <t>Brand dto</t>
-  </si>
-  <si>
     <t>It is an entity class,annotated with @Entity ,Fields are brand_id,brand_name,brand_quantity,brand_price</t>
   </si>
   <si>
-    <t>User dto</t>
-  </si>
-  <si>
     <t>It is an entity class annoted with @Entity,fields are user_id,user_name,user_email,user_password,user_role</t>
   </si>
   <si>
@@ -86,9 +77,6 @@
     <t>We will be writing database logic in Dao class,Methods are saveBrand(),updateBrandById(),deleteBrandById(),getBrandById().It should be annotated with @Repository</t>
   </si>
   <si>
-    <t>We will be writtitng database logic in Dao class,Methods are saveProduct(),updateProductById(),deleteProductById(),getProductById().It should be annotated woith @Repository</t>
-  </si>
-  <si>
     <t>User Service</t>
   </si>
   <si>
@@ -132,6 +120,69 @@
   </si>
   <si>
     <t>We'll create a 3rd party bean i.e- Swagger-ui and Configuration for the Swagger Documentation will be done</t>
+  </si>
+  <si>
+    <t>It is an entity class annoted with @Entity,fields are id,inward_date,brand,inward_quantity,requested_by</t>
+  </si>
+  <si>
+    <t>It is an entity class annoted with @Entity,fields are id,outward_date,brand,outward_quantity,requested_by</t>
+  </si>
+  <si>
+    <t>Outward DTO</t>
+  </si>
+  <si>
+    <t>Inward DTO</t>
+  </si>
+  <si>
+    <t>User DTO</t>
+  </si>
+  <si>
+    <t>Brand DTO</t>
+  </si>
+  <si>
+    <t>Products DTO</t>
+  </si>
+  <si>
+    <t>Inward Repository</t>
+  </si>
+  <si>
+    <t>Outward Repository</t>
+  </si>
+  <si>
+    <t>Inward Dao</t>
+  </si>
+  <si>
+    <t>Outward Dao</t>
+  </si>
+  <si>
+    <t>We will be writtitng database logic in Dao class,Methods are saveProduct(),updateProductById(),deleteProductById(),getProductById().It should be annotated with @Repository</t>
+  </si>
+  <si>
+    <t>We will be writtitng database logic in Dao class,Methods are saveInward(),updateInwardById(),deleteInwardById(),getInwardById().It should be annotated with @Repository</t>
+  </si>
+  <si>
+    <t>We will be writtitng database logic in Dao class,Methods are saveOutward(),updateOutwardById(),deleteOutwardById(),getOutwardById().It should be annotated with @Repository</t>
+  </si>
+  <si>
+    <t>Inward Service</t>
+  </si>
+  <si>
+    <t>Outward Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inward controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will be writting methods to saveBrand()by using @postmapping annotation, getBrandById() by using @GetMapping annotation,updateBrandIdById() by using @Putmapping annotation,deleteBrandById() by using @Deletemapping annotation and this class will be annotated with @Restcontroller and here we will be creating reference variable of particular service class. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will be writting methods to saveProduct()by using @postmapping annotation, getProductById() by using @GetMapping annotation,updateProductIdById() by using @Putmapping annotation,deleteProductById() by using @Deletemapping annotation and this class will be annotated with @Restcontroller and here we will be creating reference variable of particular service class. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will be writting methods to saveInward()by using @postmapping annotation, getInwardById() by using @GetMapping annotation,updateInwardIdById() by using @Putmapping annotation,deleteInwardById() by using @Deletemapping annotation and this class will be annotated with @Restcontroller and here we will be creating reference variable of particular service class. </t>
+  </si>
+  <si>
+    <t>Outward controller</t>
   </si>
 </sst>
 </file>
@@ -496,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -512,7 +563,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -539,10 +590,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -550,40 +601,62 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>5</v>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -591,24 +664,46 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="13" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
@@ -616,74 +711,106 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="15" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>15</v>
+      <c r="A19" s="5">
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>17</v>
+      <c r="A23" s="5">
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -691,68 +818,90 @@
     </row>
     <row r="24" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>20</v>
-      </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>22</v>
+      <c r="A30" s="5">
+        <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
